--- a/biology/Botanique/Diadesmidaceae/Diadesmidaceae.xlsx
+++ b/biology/Botanique/Diadesmidaceae/Diadesmidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diadesmidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Diadesmis, dérivé du grec  διαδημα / diadéma, « bandeau ; diadème », en référence aux longues colonies que forme cette diatomée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Diadesmis, dérivé du grec  διαδημα / diadéma, « bandeau ; diadème », en référence aux longues colonies que forme cette diatomée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon A. Pritchard chaque individu du genre type Diadesmis est en forme de navire (Navicularia). Il constitue des colonies en forme de boucles allongée biconvexes, où les individus sont étroitement reliés. Chaque cellule possède une unique cavité centrale et deux ouvertures terminales distinctes[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon A. Pritchard chaque individu du genre type Diadesmis est en forme de navire (Navicularia). Il constitue des colonies en forme de boucles allongée biconvexes, où les individus sont étroitement reliés. Chaque cellule possède une unique cavité centrale et deux ouvertures terminales distinctes. 
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (16 mai 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (16 mai 2022) :
 Diadesmis Kützing, 1844  genre type
 Humidophila (Lange-Bertalot &amp; Werum) R.L.Lowe et al., 2014
 Luticola D.G.Mann, 1990
@@ -634,9 +654,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Diadesmidaceae D.G.Mann[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Diadesmidaceae D.G.Mann.
 </t>
         </is>
       </c>
